--- a/artfynd/A 445-2023 artfynd.xlsx
+++ b/artfynd/A 445-2023 artfynd.xlsx
@@ -2800,7 +2800,7 @@
         <v>130807433</v>
       </c>
       <c r="B21" t="n">
-        <v>87159</v>
+        <v>87163</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
         <v>130807442</v>
       </c>
       <c r="B22" t="n">
-        <v>87043</v>
+        <v>87047</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2991,32 +2991,32 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130807443</v>
+        <v>130807440</v>
       </c>
       <c r="B23" t="n">
-        <v>90534</v>
+        <v>87198</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>970</v>
+        <v>6003296</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Bittermusseron</t>
+          <t>Stor odörspindling</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Leucopaxillus gentianeus</t>
+          <t>Cortinarius mussivus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Quél.) Kotl.</t>
+          <t>(Fr.) Melot</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>704276</v>
+        <v>704377</v>
       </c>
       <c r="R23" t="n">
-        <v>6361505</v>
+        <v>6361495</v>
       </c>
       <c r="S23" t="n">
         <v>1</v>
@@ -3088,32 +3088,32 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>130807440</v>
+        <v>130807443</v>
       </c>
       <c r="B24" t="n">
-        <v>87194</v>
+        <v>90538</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6003296</v>
+        <v>970</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Stor odörspindling</t>
+          <t>Bittermusseron</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Cortinarius mussivus</t>
+          <t>Leucopaxillus gentianeus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Fr.) Melot</t>
+          <t>(Quél.) Kotl.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3123,10 +3123,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>704377</v>
+        <v>704276</v>
       </c>
       <c r="R24" t="n">
-        <v>6361495</v>
+        <v>6361505</v>
       </c>
       <c r="S24" t="n">
         <v>1</v>
@@ -3188,7 +3188,7 @@
         <v>130807432</v>
       </c>
       <c r="B25" t="n">
-        <v>87067</v>
+        <v>87071</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         <v>130807429</v>
       </c>
       <c r="B26" t="n">
-        <v>87219</v>
+        <v>87223</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3382,7 +3382,7 @@
         <v>130807437</v>
       </c>
       <c r="B27" t="n">
-        <v>87206</v>
+        <v>87210</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>130807444</v>
       </c>
       <c r="B28" t="n">
-        <v>91217</v>
+        <v>91221</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>130807436</v>
       </c>
       <c r="B29" t="n">
-        <v>87206</v>
+        <v>87210</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         <v>130807434</v>
       </c>
       <c r="B30" t="n">
-        <v>87090</v>
+        <v>87094</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3770,7 +3770,7 @@
         <v>130807439</v>
       </c>
       <c r="B31" t="n">
-        <v>87194</v>
+        <v>87198</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>130807428</v>
       </c>
       <c r="B32" t="n">
-        <v>87090</v>
+        <v>87094</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>

--- a/artfynd/A 445-2023 artfynd.xlsx
+++ b/artfynd/A 445-2023 artfynd.xlsx
@@ -2991,32 +2991,32 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130807440</v>
+        <v>130807443</v>
       </c>
       <c r="B23" t="n">
-        <v>87198</v>
+        <v>90538</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6003296</v>
+        <v>970</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Stor odörspindling</t>
+          <t>Bittermusseron</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Cortinarius mussivus</t>
+          <t>Leucopaxillus gentianeus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.) Melot</t>
+          <t>(Quél.) Kotl.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>704377</v>
+        <v>704276</v>
       </c>
       <c r="R23" t="n">
-        <v>6361495</v>
+        <v>6361505</v>
       </c>
       <c r="S23" t="n">
         <v>1</v>
@@ -3088,32 +3088,32 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>130807443</v>
+        <v>130807440</v>
       </c>
       <c r="B24" t="n">
-        <v>90538</v>
+        <v>87198</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>970</v>
+        <v>6003296</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Bittermusseron</t>
+          <t>Stor odörspindling</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Leucopaxillus gentianeus</t>
+          <t>Cortinarius mussivus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Quél.) Kotl.</t>
+          <t>(Fr.) Melot</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3123,10 +3123,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>704276</v>
+        <v>704377</v>
       </c>
       <c r="R24" t="n">
-        <v>6361505</v>
+        <v>6361495</v>
       </c>
       <c r="S24" t="n">
         <v>1</v>

--- a/artfynd/A 445-2023 artfynd.xlsx
+++ b/artfynd/A 445-2023 artfynd.xlsx
@@ -2991,32 +2991,32 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130807443</v>
+        <v>130807440</v>
       </c>
       <c r="B23" t="n">
-        <v>90538</v>
+        <v>87198</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>970</v>
+        <v>6003296</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Bittermusseron</t>
+          <t>Stor odörspindling</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Leucopaxillus gentianeus</t>
+          <t>Cortinarius mussivus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Quél.) Kotl.</t>
+          <t>(Fr.) Melot</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>704276</v>
+        <v>704377</v>
       </c>
       <c r="R23" t="n">
-        <v>6361505</v>
+        <v>6361495</v>
       </c>
       <c r="S23" t="n">
         <v>1</v>
@@ -3088,32 +3088,32 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>130807440</v>
+        <v>130807443</v>
       </c>
       <c r="B24" t="n">
-        <v>87198</v>
+        <v>90538</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6003296</v>
+        <v>970</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Stor odörspindling</t>
+          <t>Bittermusseron</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Cortinarius mussivus</t>
+          <t>Leucopaxillus gentianeus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Fr.) Melot</t>
+          <t>(Quél.) Kotl.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3123,10 +3123,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>704377</v>
+        <v>704276</v>
       </c>
       <c r="R24" t="n">
-        <v>6361495</v>
+        <v>6361505</v>
       </c>
       <c r="S24" t="n">
         <v>1</v>

--- a/artfynd/A 445-2023 artfynd.xlsx
+++ b/artfynd/A 445-2023 artfynd.xlsx
@@ -2991,32 +2991,32 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130807440</v>
+        <v>130807443</v>
       </c>
       <c r="B23" t="n">
-        <v>87198</v>
+        <v>90538</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6003296</v>
+        <v>970</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Stor odörspindling</t>
+          <t>Bittermusseron</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Cortinarius mussivus</t>
+          <t>Leucopaxillus gentianeus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.) Melot</t>
+          <t>(Quél.) Kotl.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>704377</v>
+        <v>704276</v>
       </c>
       <c r="R23" t="n">
-        <v>6361495</v>
+        <v>6361505</v>
       </c>
       <c r="S23" t="n">
         <v>1</v>
@@ -3088,32 +3088,32 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>130807443</v>
+        <v>130807440</v>
       </c>
       <c r="B24" t="n">
-        <v>90538</v>
+        <v>87198</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>970</v>
+        <v>6003296</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Bittermusseron</t>
+          <t>Stor odörspindling</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Leucopaxillus gentianeus</t>
+          <t>Cortinarius mussivus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Quél.) Kotl.</t>
+          <t>(Fr.) Melot</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3123,10 +3123,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>704276</v>
+        <v>704377</v>
       </c>
       <c r="R24" t="n">
-        <v>6361505</v>
+        <v>6361495</v>
       </c>
       <c r="S24" t="n">
         <v>1</v>
@@ -3476,10 +3476,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>130807444</v>
+        <v>130807436</v>
       </c>
       <c r="B28" t="n">
-        <v>91221</v>
+        <v>87210</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3487,21 +3487,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4188</v>
+        <v>3674</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Fransig jordstjärna</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Geastrum fimbriatum</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Fr.:Pers.</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3511,10 +3511,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>704536</v>
+        <v>704389</v>
       </c>
       <c r="R28" t="n">
-        <v>6361615</v>
+        <v>6361480</v>
       </c>
       <c r="S28" t="n">
         <v>1</v>
@@ -3573,10 +3573,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>130807436</v>
+        <v>130807444</v>
       </c>
       <c r="B29" t="n">
-        <v>87210</v>
+        <v>91221</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3584,21 +3584,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>3674</v>
+        <v>4188</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Fransig jordstjärna</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Geastrum fimbriatum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>Fr.:Pers.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3608,10 +3608,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>704389</v>
+        <v>704536</v>
       </c>
       <c r="R29" t="n">
-        <v>6361480</v>
+        <v>6361615</v>
       </c>
       <c r="S29" t="n">
         <v>1</v>
@@ -3670,10 +3670,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130807434</v>
+        <v>130807439</v>
       </c>
       <c r="B30" t="n">
-        <v>87094</v>
+        <v>87198</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3681,21 +3681,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>424</v>
+        <v>6003296</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Svartgrön spindling</t>
+          <t>Stor odörspindling</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Cortinarius atrovirens</t>
+          <t>Cortinarius mussivus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Kalchbr.</t>
+          <t>(Fr.) Melot</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3705,10 +3705,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>704395</v>
+        <v>704409</v>
       </c>
       <c r="R30" t="n">
-        <v>6361502</v>
+        <v>6361473</v>
       </c>
       <c r="S30" t="n">
         <v>1</v>
@@ -3767,10 +3767,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>130807439</v>
+        <v>130807434</v>
       </c>
       <c r="B31" t="n">
-        <v>87198</v>
+        <v>87094</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3778,21 +3778,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6003296</v>
+        <v>424</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Stor odörspindling</t>
+          <t>Svartgrön spindling</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Cortinarius mussivus</t>
+          <t>Cortinarius atrovirens</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Fr.) Melot</t>
+          <t>Kalchbr.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3802,10 +3802,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>704409</v>
+        <v>704395</v>
       </c>
       <c r="R31" t="n">
-        <v>6361473</v>
+        <v>6361502</v>
       </c>
       <c r="S31" t="n">
         <v>1</v>

--- a/artfynd/A 445-2023 artfynd.xlsx
+++ b/artfynd/A 445-2023 artfynd.xlsx
@@ -3476,10 +3476,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>130807436</v>
+        <v>130807444</v>
       </c>
       <c r="B28" t="n">
-        <v>87210</v>
+        <v>91221</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3487,21 +3487,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>3674</v>
+        <v>4188</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Fransig jordstjärna</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Geastrum fimbriatum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>Fr.:Pers.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3511,10 +3511,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>704389</v>
+        <v>704536</v>
       </c>
       <c r="R28" t="n">
-        <v>6361480</v>
+        <v>6361615</v>
       </c>
       <c r="S28" t="n">
         <v>1</v>
@@ -3573,10 +3573,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>130807444</v>
+        <v>130807436</v>
       </c>
       <c r="B29" t="n">
-        <v>91221</v>
+        <v>87210</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3584,21 +3584,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>4188</v>
+        <v>3674</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Fransig jordstjärna</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Geastrum fimbriatum</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Fr.:Pers.</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3608,10 +3608,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>704536</v>
+        <v>704389</v>
       </c>
       <c r="R29" t="n">
-        <v>6361615</v>
+        <v>6361480</v>
       </c>
       <c r="S29" t="n">
         <v>1</v>
@@ -3670,10 +3670,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130807439</v>
+        <v>130807434</v>
       </c>
       <c r="B30" t="n">
-        <v>87198</v>
+        <v>87094</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3681,21 +3681,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6003296</v>
+        <v>424</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Stor odörspindling</t>
+          <t>Svartgrön spindling</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Cortinarius mussivus</t>
+          <t>Cortinarius atrovirens</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Fr.) Melot</t>
+          <t>Kalchbr.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3705,10 +3705,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>704409</v>
+        <v>704395</v>
       </c>
       <c r="R30" t="n">
-        <v>6361473</v>
+        <v>6361502</v>
       </c>
       <c r="S30" t="n">
         <v>1</v>
@@ -3767,10 +3767,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>130807434</v>
+        <v>130807439</v>
       </c>
       <c r="B31" t="n">
-        <v>87094</v>
+        <v>87198</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3778,21 +3778,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>424</v>
+        <v>6003296</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Svartgrön spindling</t>
+          <t>Stor odörspindling</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Cortinarius atrovirens</t>
+          <t>Cortinarius mussivus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Kalchbr.</t>
+          <t>(Fr.) Melot</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3802,10 +3802,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>704395</v>
+        <v>704409</v>
       </c>
       <c r="R31" t="n">
-        <v>6361502</v>
+        <v>6361473</v>
       </c>
       <c r="S31" t="n">
         <v>1</v>

--- a/artfynd/A 445-2023 artfynd.xlsx
+++ b/artfynd/A 445-2023 artfynd.xlsx
@@ -3670,10 +3670,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130807434</v>
+        <v>130807439</v>
       </c>
       <c r="B30" t="n">
-        <v>87094</v>
+        <v>87198</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3681,21 +3681,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>424</v>
+        <v>6003296</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Svartgrön spindling</t>
+          <t>Stor odörspindling</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Cortinarius atrovirens</t>
+          <t>Cortinarius mussivus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Kalchbr.</t>
+          <t>(Fr.) Melot</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3705,10 +3705,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>704395</v>
+        <v>704409</v>
       </c>
       <c r="R30" t="n">
-        <v>6361502</v>
+        <v>6361473</v>
       </c>
       <c r="S30" t="n">
         <v>1</v>
@@ -3767,10 +3767,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>130807439</v>
+        <v>130807434</v>
       </c>
       <c r="B31" t="n">
-        <v>87198</v>
+        <v>87094</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3778,21 +3778,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6003296</v>
+        <v>424</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Stor odörspindling</t>
+          <t>Svartgrön spindling</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Cortinarius mussivus</t>
+          <t>Cortinarius atrovirens</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Fr.) Melot</t>
+          <t>Kalchbr.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3802,10 +3802,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>704409</v>
+        <v>704395</v>
       </c>
       <c r="R31" t="n">
-        <v>6361473</v>
+        <v>6361502</v>
       </c>
       <c r="S31" t="n">
         <v>1</v>

--- a/artfynd/A 445-2023 artfynd.xlsx
+++ b/artfynd/A 445-2023 artfynd.xlsx
@@ -2991,32 +2991,32 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130807440</v>
+        <v>130807443</v>
       </c>
       <c r="B23" t="n">
-        <v>87198</v>
+        <v>90538</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6003296</v>
+        <v>970</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Stor odörspindling</t>
+          <t>Bittermusseron</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Cortinarius mussivus</t>
+          <t>Leucopaxillus gentianeus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.) Melot</t>
+          <t>(Quél.) Kotl.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>704377</v>
+        <v>704276</v>
       </c>
       <c r="R23" t="n">
-        <v>6361495</v>
+        <v>6361505</v>
       </c>
       <c r="S23" t="n">
         <v>1</v>
@@ -3088,32 +3088,32 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>130807443</v>
+        <v>130807440</v>
       </c>
       <c r="B24" t="n">
-        <v>90538</v>
+        <v>87198</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>970</v>
+        <v>6003296</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Bittermusseron</t>
+          <t>Stor odörspindling</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Leucopaxillus gentianeus</t>
+          <t>Cortinarius mussivus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Quél.) Kotl.</t>
+          <t>(Fr.) Melot</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3123,10 +3123,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>704276</v>
+        <v>704377</v>
       </c>
       <c r="R24" t="n">
-        <v>6361505</v>
+        <v>6361495</v>
       </c>
       <c r="S24" t="n">
         <v>1</v>
@@ -3476,10 +3476,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>130807444</v>
+        <v>130807436</v>
       </c>
       <c r="B28" t="n">
-        <v>91221</v>
+        <v>87210</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3487,21 +3487,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4188</v>
+        <v>3674</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Fransig jordstjärna</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Geastrum fimbriatum</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Fr.:Pers.</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3511,10 +3511,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>704536</v>
+        <v>704389</v>
       </c>
       <c r="R28" t="n">
-        <v>6361615</v>
+        <v>6361480</v>
       </c>
       <c r="S28" t="n">
         <v>1</v>
@@ -3573,10 +3573,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>130807436</v>
+        <v>130807444</v>
       </c>
       <c r="B29" t="n">
-        <v>87210</v>
+        <v>91221</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3584,21 +3584,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>3674</v>
+        <v>4188</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Fransig jordstjärna</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Geastrum fimbriatum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>Fr.:Pers.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3608,10 +3608,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>704389</v>
+        <v>704536</v>
       </c>
       <c r="R29" t="n">
-        <v>6361480</v>
+        <v>6361615</v>
       </c>
       <c r="S29" t="n">
         <v>1</v>

--- a/artfynd/A 445-2023 artfynd.xlsx
+++ b/artfynd/A 445-2023 artfynd.xlsx
@@ -2800,7 +2800,7 @@
         <v>130807433</v>
       </c>
       <c r="B21" t="n">
-        <v>87163</v>
+        <v>87164</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
         <v>130807442</v>
       </c>
       <c r="B22" t="n">
-        <v>87047</v>
+        <v>87048</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2994,7 +2994,7 @@
         <v>130807443</v>
       </c>
       <c r="B23" t="n">
-        <v>90538</v>
+        <v>90539</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>130807440</v>
       </c>
       <c r="B24" t="n">
-        <v>87198</v>
+        <v>87199</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>130807432</v>
       </c>
       <c r="B25" t="n">
-        <v>87071</v>
+        <v>87072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         <v>130807429</v>
       </c>
       <c r="B26" t="n">
-        <v>87223</v>
+        <v>87224</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3382,7 +3382,7 @@
         <v>130807437</v>
       </c>
       <c r="B27" t="n">
-        <v>87210</v>
+        <v>87211</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3476,10 +3476,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>130807436</v>
+        <v>130807444</v>
       </c>
       <c r="B28" t="n">
-        <v>87210</v>
+        <v>91222</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3487,21 +3487,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>3674</v>
+        <v>4188</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Fransig jordstjärna</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Geastrum fimbriatum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>Fr.:Pers.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3511,10 +3511,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>704389</v>
+        <v>704536</v>
       </c>
       <c r="R28" t="n">
-        <v>6361480</v>
+        <v>6361615</v>
       </c>
       <c r="S28" t="n">
         <v>1</v>
@@ -3573,10 +3573,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>130807444</v>
+        <v>130807436</v>
       </c>
       <c r="B29" t="n">
-        <v>91221</v>
+        <v>87211</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3584,21 +3584,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>4188</v>
+        <v>3674</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Fransig jordstjärna</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Geastrum fimbriatum</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Fr.:Pers.</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3608,10 +3608,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>704536</v>
+        <v>704389</v>
       </c>
       <c r="R29" t="n">
-        <v>6361615</v>
+        <v>6361480</v>
       </c>
       <c r="S29" t="n">
         <v>1</v>
@@ -3670,10 +3670,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130807439</v>
+        <v>130807434</v>
       </c>
       <c r="B30" t="n">
-        <v>87198</v>
+        <v>87095</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3681,21 +3681,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6003296</v>
+        <v>424</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Stor odörspindling</t>
+          <t>Svartgrön spindling</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Cortinarius mussivus</t>
+          <t>Cortinarius atrovirens</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Fr.) Melot</t>
+          <t>Kalchbr.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3705,10 +3705,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>704409</v>
+        <v>704395</v>
       </c>
       <c r="R30" t="n">
-        <v>6361473</v>
+        <v>6361502</v>
       </c>
       <c r="S30" t="n">
         <v>1</v>
@@ -3767,10 +3767,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>130807434</v>
+        <v>130807439</v>
       </c>
       <c r="B31" t="n">
-        <v>87094</v>
+        <v>87199</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3778,21 +3778,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>424</v>
+        <v>6003296</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Svartgrön spindling</t>
+          <t>Stor odörspindling</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Cortinarius atrovirens</t>
+          <t>Cortinarius mussivus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Kalchbr.</t>
+          <t>(Fr.) Melot</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3802,10 +3802,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>704395</v>
+        <v>704409</v>
       </c>
       <c r="R31" t="n">
-        <v>6361502</v>
+        <v>6361473</v>
       </c>
       <c r="S31" t="n">
         <v>1</v>
@@ -3867,7 +3867,7 @@
         <v>130807428</v>
       </c>
       <c r="B32" t="n">
-        <v>87094</v>
+        <v>87095</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
